--- a/Documentation/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Documentation/SWP391-AppDevProject_Backlog Template.xlsx
@@ -12,10 +12,10 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">RoC!$A$3:$C$10</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Product!$A$8:$F$30</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Iteration 1'!$A$8:$F$12</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Iteration 2'!$A$8:$F$14</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Iteration 3'!$A$8:$F$13</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Product!$A$8:$F$29</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Iteration 1'!$A$8:$F$15</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Iteration 2'!$A$8:$F$17</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Iteration 3'!$A$8:$F$17</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Iteration 4'!$A$8:$F$15</definedName>
   </definedNames>
   <calcPr/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
   <si>
     <t>RECORDS OF CHANGES</t>
   </si>
@@ -118,6 +118,12 @@
     <t>The landlord will be able to delete their posts after a accepting a pop-up confirmation.</t>
   </si>
   <si>
+    <t>Manage posted posts</t>
+  </si>
+  <si>
+    <t>The landlord will be able to see their own posts and manage them by updating or deleting them</t>
+  </si>
+  <si>
     <t>Post list</t>
   </si>
   <si>
@@ -139,12 +145,6 @@
     <t>When the post list is displayed, it will be paginated into 10 items per page.</t>
   </si>
   <si>
-    <t>Post list breadcrumb</t>
-  </si>
-  <si>
-    <t>When the post list or post detail is displayed, there will be a breadcrumb section that lists the subsection the current page belongs to</t>
-  </si>
-  <si>
     <t>View post</t>
   </si>
   <si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>Iteration 3</t>
-  </si>
-  <si>
-    <t>View covid status near address</t>
-  </si>
-  <si>
-    <t>In post details and after filtering by address, there will be information about covid status near the address of the post/filter.</t>
   </si>
   <si>
     <t>Comment on post</t>
@@ -241,16 +235,58 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>TuanLA</t>
   </si>
   <si>
-    <t>Pay to crete post</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>ThaoPT</t>
+  </si>
+  <si>
+    <t>TuanNS</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Login Form</t>
+  </si>
+  <si>
+    <t>Register Form</t>
+  </si>
+  <si>
+    <t>Create Post Form</t>
   </si>
   <si>
     <t>ITERATION 2 BACKLOG</t>
   </si>
   <si>
+    <t>AnhPT</t>
+  </si>
+  <si>
+    <t>Form Update Post</t>
+  </si>
+  <si>
+    <t>Display Manage posted posts</t>
+  </si>
+  <si>
+    <t>Display Post list page</t>
+  </si>
+  <si>
     <t>ITERATION 3 BACKLOG</t>
+  </si>
+  <si>
+    <t>Post detail frontend</t>
+  </si>
+  <si>
+    <t>User Profile frontend</t>
+  </si>
+  <si>
+    <t>Show covid status</t>
+  </si>
+  <si>
+    <t>Deferred</t>
   </si>
   <si>
     <t>ITERATION 4 BACKLOG</t>
@@ -261,22 +297,43 @@
   <si>
     <t>Review area</t>
   </si>
+  <si>
+    <t>Admin Page frontend</t>
+  </si>
+  <si>
+    <t>404 Page</t>
+  </si>
+  <si>
+    <t>403 Page</t>
+  </si>
+  <si>
+    <t>Review Area Page frontend</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -316,6 +373,7 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -355,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -382,104 +440,113 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5092,7 +5159,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A16" si="2">ROW()-8</f>
+        <f t="shared" ref="A13:A14" si="2">ROW()-8</f>
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -5123,7 +5190,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>30</v>
@@ -5133,116 +5200,136 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A16:A17" si="3">ROW()-8</f>
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17">
         <v>9.0</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20">
-        <v>10.0</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>18</v>
@@ -5256,7 +5343,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <f t="shared" ref="A19:A20" si="3">ROW()-8</f>
+        <f>ROW()-8</f>
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -5276,20 +5363,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
+      <c r="A20" s="17">
+        <v>8.0</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -5297,13 +5383,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20">
-        <v>8.0</v>
+      <c r="A21" s="5">
+        <f t="shared" ref="A21:A29" si="4">ROW()-8</f>
+        <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -5318,20 +5405,20 @@
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <f t="shared" ref="A22:A30" si="4">ROW()-8</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>43</v>
@@ -5343,43 +5430,43 @@
         <v>15</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+    </row>
+    <row r="25">
       <c r="A25" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -5388,37 +5475,37 @@
         <v>56</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>58</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>58</v>
+      <c r="B26" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -5426,20 +5513,20 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>55</v>
+      <c r="F27" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -5451,16 +5538,16 @@
         <v>63</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>55</v>
+      <c r="F28" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -5472,38 +5559,23 @@
         <v>65</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
@@ -5519,9 +5591,9 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -5537,9 +5609,6 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
@@ -8448,18 +8517,15 @@
     <row r="1005" ht="15.75" customHeight="1">
       <c r="A1005" s="2"/>
     </row>
-    <row r="1006" ht="15.75" customHeight="1">
-      <c r="A1006" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$8:$F$30">
-    <sortState ref="A8:F30">
-      <sortCondition ref="F8:F30"/>
-      <sortCondition ref="C8:C30"/>
+  <autoFilter ref="$A$8:$F$29">
+    <sortState ref="A8:F29">
+      <sortCondition ref="F8:F29"/>
+      <sortCondition ref="C8:C29"/>
     </sortState>
   </autoFilter>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D29">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8485,7 +8551,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="16.71"/>
+    <col customWidth="1" min="2" max="2" width="20.14"/>
     <col customWidth="1" min="3" max="3" width="21.71"/>
     <col customWidth="1" min="4" max="4" width="11.57"/>
     <col customWidth="1" min="5" max="5" width="6.29"/>
@@ -8520,7 +8586,7 @@
     <row r="6">
       <c r="A6" s="2"/>
       <c r="F6" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -8541,21 +8607,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A12" si="1">ROW()-8</f>
+        <f t="shared" ref="A9:A15" si="1">ROW()-8</f>
         <v>1</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -8565,15 +8631,17 @@
         <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E9" s="32">
-        <f t="shared" ref="E9:E12" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>240</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>72</v>
+        <f t="shared" ref="E9:E15" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -8588,16 +8656,18 @@
       <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="32">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -8612,16 +8682,18 @@
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>14</v>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="32">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>120</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -8631,7 +8703,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>21</v>
@@ -8643,20 +8715,91 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>72</v>
+      <c r="F12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
@@ -11605,12 +11748,12 @@
       <c r="A997" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$8:$F$12"/>
+  <autoFilter ref="$A$8:$F$15"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending,Doing,Deferred,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11671,7 +11814,7 @@
     <row r="6">
       <c r="A6" s="2"/>
       <c r="F6" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -11692,21 +11835,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A14" si="1">ROW()-8</f>
+        <f t="shared" ref="A9:A10" si="1">ROW()-8</f>
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -11719,12 +11862,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="32">
-        <f t="shared" ref="E9:E14" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <f t="shared" ref="E9:E10" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -11746,121 +11891,199 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
-        <v>72</v>
+      <c r="F10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>32</v>
+      <c r="C11" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="32">
-        <f t="shared" si="2"/>
+        <f>IF(D12="Complex", 240, IF(D12="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
-        <v>72</v>
+      <c r="F11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A12:A17" si="3">ROW()-8</f>
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
+      <c r="D12" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="32">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>72</v>
+        <f t="shared" ref="E12:E17" si="4">IF(D12="Complex", 240, IF(D12="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>18</v>
+      <c r="C13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="32">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
+      <c r="F14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -14800,16 +15023,13 @@
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$8:$F$14"/>
+  <autoFilter ref="$A$8:$F$17"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G17">
       <formula1>"Pending,Doing,Deferred,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D17">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14870,7 +15090,7 @@
     <row r="6">
       <c r="A6" s="2"/>
       <c r="F6" s="28" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -14891,21 +15111,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A13" si="1">ROW()-8</f>
+        <f t="shared" ref="A9:A15" si="1">ROW()-8</f>
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -14918,12 +15138,14 @@
         <v>18</v>
       </c>
       <c r="E9" s="32">
-        <f t="shared" ref="E9:E13" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <f t="shared" ref="E9:E15" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>72</v>
+      <c r="F9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -14935,19 +15157,21 @@
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="32">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -14959,19 +15183,21 @@
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E11" s="32">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -14984,18 +15210,20 @@
         <v>48</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E12" s="32">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>72</v>
+        <v>240</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -15005,10 +15233,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>26</v>
@@ -15017,23 +15245,72 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
-        <v>72</v>
+      <c r="F13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
+      <c r="F17" s="34"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
@@ -17979,12 +18256,12 @@
       <c r="A998" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$8:$F$13"/>
+  <autoFilter ref="$A$8:$F$17"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending,Doing,Deferred,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18010,13 +18287,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="23.71"/>
+    <col customWidth="1" min="2" max="2" width="25.71"/>
     <col customWidth="1" min="3" max="3" width="16.0"/>
     <col customWidth="1" min="4" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="6.29"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" min="7" max="7" width="13.43"/>
-    <col customWidth="1" min="8" max="8" width="66.71"/>
+    <col customWidth="1" min="8" max="8" width="55.29"/>
     <col customWidth="1" min="9" max="26" width="11.43"/>
   </cols>
   <sheetData>
@@ -18045,7 +18322,7 @@
     <row r="6">
       <c r="A6" s="2"/>
       <c r="F6" s="28" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -18066,39 +18343,41 @@
         <v>9</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A15" si="1">ROW()-8</f>
+        <f t="shared" ref="A9:A20" si="1">ROW()-8</f>
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="32">
-        <f t="shared" ref="E9:E15" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>72</v>
+        <f t="shared" ref="E9:E20" si="2">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -18110,19 +18389,21 @@
       <c r="B10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
+      <c r="C10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="32">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>72</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -18131,22 +18412,24 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E11" s="32">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -18155,22 +18438,24 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E12" s="32">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>72</v>
+        <v>120</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -18183,18 +18468,20 @@
         <v>63</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="32">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
-        <v>72</v>
+      <c r="F13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -18204,21 +18491,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E14" s="32">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
+        <v>120</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -18228,38 +18517,151 @@
         <v>7</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="32">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6" t="s">
-        <v>72</v>
+      <c r="F15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
@@ -21191,23 +21593,14 @@
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="2"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="2"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$8:$F$15"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G20">
       <formula1>"Pending,Doing,Deferred,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D20">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Documentation/SWP391-AppDevProject_Backlog Template.xlsx
@@ -18287,7 +18287,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
+    <col customWidth="1" min="2" max="2" width="26.71"/>
     <col customWidth="1" min="3" max="3" width="16.0"/>
     <col customWidth="1" min="4" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="6.29"/>
